--- a/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D330B1B-CC11-4D33-BE1F-56DAA1692F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF38212-07CF-47E8-BCE0-9642FDDD4EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntityInDomain" sheetId="5" r:id="rId1"/>
@@ -32,15 +32,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={873DB612-F645-4C6F-9822-CC5C6056046F}</author>
     <author>tc={74640F05-764D-4B33-BCC4-F16AE36A81EB}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{873DB612-F645-4C6F-9822-CC5C6056046F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Note: use the same id may lead to test fail in different environments, as the ids in dev/test/prod environment are different!</t>
+    If this field is set, test case will use its value to get a list of relations, then pick up the id of the 1st relation as the relationId value to be test and the input parameter "relationId" will be ignored.</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Note: relation ids are different in dev/test/prod environment, so use a fixed id here may lead to test fail in a another environment!</t>
       </text>
     </comment>
   </commentList>
@@ -48,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
   <si>
     <t>OK</t>
   </si>
@@ -246,6 +255,12 @@
   </si>
   <si>
     <t>{"id":"41","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Has_Device</t>
   </si>
 </sst>
 </file>
@@ -617,8 +632,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-01-18T04:34:12.95" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
-    <text>Note: use the same id may lead to test fail in different environments, as the ids in dev/test/prod environment are different!</text>
+  <threadedComment ref="C1" dT="2021-01-18T06:55:27.50" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{873DB612-F645-4C6F-9822-CC5C6056046F}">
+    <text>If this field is set, test case will use its value to get a list of relations, then pick up the id of the 1st relation as the relationId value to be test and the input parameter "relationId" will be ignored.</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2021-01-18T04:34:12.95" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
+    <text>Note: relation ids are different in dev/test/prod environment, so use a fixed id here may lead to test fail in a another environment!</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -742,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1261,21 +1279,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="30.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6328125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.54296875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -1283,95 +1301,106 @@
         <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6">
         <v>190</v>
       </c>
-      <c r="D2" s="6">
-        <v>200</v>
-      </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="6">
+        <v>200</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="6">
         <v>278</v>
       </c>
-      <c r="D3" s="6">
-        <v>200</v>
-      </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="6">
+        <v>200</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>400</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>103000</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2">
         <v>9999</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>500</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF38212-07CF-47E8-BCE0-9642FDDD4EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA73F320-7536-4C46-B013-FED3A48CDEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="createEntityInDomain" sheetId="5" r:id="rId1"/>
+    <sheet name="createEntity" sheetId="5" r:id="rId1"/>
     <sheet name="updateEntity" sheetId="3" r:id="rId2"/>
     <sheet name="deleteEntity" sheetId="4" r:id="rId3"/>
     <sheet name="getEntityById" sheetId="2" r:id="rId4"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
   <si>
     <t>OK</t>
   </si>
@@ -80,12 +80,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>body</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>abcde123</t>
   </si>
   <si>
-    <t>id format invalid</t>
-  </si>
-  <si>
     <t>bad request, entity id not a number</t>
   </si>
   <si>
@@ -119,30 +107,15 @@
     <t>Device_Modelqwerqwr3r23rwer*()(!@#$%%^&amp;*</t>
   </si>
   <si>
-    <t>no valid label</t>
-  </si>
-  <si>
     <t>bad request, body is empty</t>
   </si>
   <si>
     <t>{}</t>
   </si>
   <si>
-    <t>same entity</t>
-  </si>
-  <si>
-    <t>No message available</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>entity id invalid</t>
   </si>
   <si>
-    <t>id not exist</t>
-  </si>
-  <si>
     <t>labels</t>
   </si>
   <si>
@@ -167,9 +140,6 @@
     <t>bad request</t>
   </si>
   <si>
-    <t>getRelationById.relationId: id format invalid</t>
-  </si>
-  <si>
     <t>good request, get all relations</t>
   </si>
   <si>
@@ -197,15 +167,9 @@
     <t>Jinzu-Entity-mgmt-Test-9-var2</t>
   </si>
   <si>
-    <t>{"id":"9999","label":"Device","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
-  </si>
-  <si>
     <t>Jinzu-Entity-mgmt-Test-9-var3</t>
   </si>
   <si>
-    <t>{"id":"abcde","label":"Device","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
-  </si>
-  <si>
     <t>Jinzu-Entity-mgmt-Test-3</t>
   </si>
   <si>
@@ -261,6 +225,36 @@
   </si>
   <si>
     <t>Has_Device</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>same label</t>
+  </si>
+  <si>
+    <t>label invalid</t>
+  </si>
+  <si>
+    <t>{"id":"9999","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
+  </si>
+  <si>
+    <t>{"id":"abcde","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
+  </si>
+  <si>
+    <t>is empty</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>format invalid</t>
+  </si>
+  <si>
+    <t>entity doesn't exist</t>
+  </si>
+  <si>
+    <t>relation doesn't exist</t>
   </si>
 </sst>
 </file>
@@ -646,7 +640,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -659,16 +653,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -682,13 +676,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -705,13 +699,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -720,24 +714,24 @@
         <v>400</v>
       </c>
       <c r="F3" s="2">
-        <v>10300</v>
+        <v>103000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>400</v>
@@ -746,7 +740,7 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +755,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -775,19 +769,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -801,19 +795,19 @@
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
@@ -827,59 +821,59 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>500</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>400</v>
+      </c>
+      <c r="G3" s="2">
+        <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>400</v>
+      </c>
+      <c r="G4" s="2">
+        <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2">
         <v>400</v>
@@ -888,7 +882,7 @@
         <v>103000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +897,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -916,16 +910,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -942,41 +936,41 @@
     </row>
     <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>1234</v>
+        <v>123456789</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
       </c>
       <c r="G2" s="2">
+        <v>200</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>400</v>
@@ -985,29 +979,29 @@
         <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="5">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="F4" s="2">
         <v>200</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1016,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1035,16 +1029,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -1061,13 +1055,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -1087,15 +1081,15 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
         <v>400</v>
@@ -1104,29 +1098,29 @@
         <v>103000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="5">
-        <v>99999</v>
+        <v>999999</v>
       </c>
       <c r="F4" s="2">
-        <v>500</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>103000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1154,13 +1148,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -1174,10 +1168,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6">
@@ -1192,13 +1186,13 @@
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>200</v>
@@ -1212,13 +1206,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -1232,13 +1226,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>200</v>
@@ -1252,13 +1246,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2">
         <v>200</v>
@@ -1282,7 +1276,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1295,16 +1289,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1318,13 +1312,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D2" s="6">
         <v>190</v>
@@ -1341,13 +1335,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6">
         <v>278</v>
@@ -1364,14 +1358,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>400</v>
@@ -1380,28 +1374,28 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
-        <v>9999</v>
+        <v>999999</v>
       </c>
       <c r="E5" s="2">
-        <v>500</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.3.1.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA73F320-7536-4C46-B013-FED3A48CDEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838ED571-E450-439B-9BC1-4D13AFB0341D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -639,16 +639,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
@@ -758,16 +758,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -841,7 +841,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -863,7 +863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -900,15 +900,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -982,7 +982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1019,12 +1019,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6328125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.54296875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1138,15 +1138,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6328125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.54296875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1275,16 +1275,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.54296875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="30.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838ED571-E450-439B-9BC1-4D13AFB0341D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A76F2-7F2E-4319-B20E-17533103C3DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
     <sheet name="updateEntity" sheetId="3" r:id="rId2"/>
-    <sheet name="deleteEntity" sheetId="4" r:id="rId3"/>
-    <sheet name="getEntityById" sheetId="2" r:id="rId4"/>
-    <sheet name="getRelations" sheetId="6" r:id="rId5"/>
-    <sheet name="getRelationById" sheetId="7" r:id="rId6"/>
+    <sheet name="getEntityById" sheetId="2" r:id="rId3"/>
+    <sheet name="filterEntityByProperty" sheetId="9" r:id="rId4"/>
+    <sheet name="getEntities" sheetId="12" r:id="rId5"/>
+    <sheet name="deleteEntity" sheetId="4" r:id="rId6"/>
+    <sheet name="getRelations" sheetId="6" r:id="rId7"/>
+    <sheet name="getRelationById" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,11 +34,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={873DB612-F645-4C6F-9822-CC5C6056046F}</author>
+    <author>tc={85637300-450C-4380-BF4A-D6C68B5985E0}</author>
     <author>tc={74640F05-764D-4B33-BCC4-F16AE36A81EB}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{873DB612-F645-4C6F-9822-CC5C6056046F}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{85637300-450C-4380-BF4A-D6C68B5985E0}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -49,7 +51,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    Note: relation ids are different in dev/test/prod environment, so use a fixed id here may lead to test fail in a another environment!</t>
+    Note: use the same id may lead to test fail in different environments, as the ids in dev/test/prod environment are different!</t>
       </text>
     </comment>
   </commentList>
@@ -57,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="66">
-  <si>
-    <t>OK</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>testEntity1</t>
   </si>
@@ -101,52 +100,159 @@
     <t>bad request, entity already exist</t>
   </si>
   <si>
+    <t>bad request, body is empty</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>labels</t>
+  </si>
+  <si>
+    <t>bad request, label not exist</t>
+  </si>
+  <si>
+    <t>good request, single valid label</t>
+  </si>
+  <si>
+    <t>good request, multiple valid labels</t>
+  </si>
+  <si>
+    <t>not_exist_relation</t>
+  </si>
+  <si>
+    <t>good request, mix of valid and invalid labels</t>
+  </si>
+  <si>
+    <t>relationId</t>
+  </si>
+  <si>
+    <t>good request, get all relations</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>bad request, relationId not exist</t>
+  </si>
+  <si>
+    <t>bad request, relationId is invalid</t>
+  </si>
+  <si>
+    <t>same label</t>
+  </si>
+  <si>
+    <t>format invalid</t>
+  </si>
+  <si>
+    <t>is empty</t>
+  </si>
+  <si>
+    <t>not exist</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>nodeType</t>
+  </si>
+  <si>
+    <t>metadata_node_type</t>
+  </si>
+  <si>
+    <t>metadata_node_domain</t>
+  </si>
+  <si>
+    <t>additional_prop1</t>
+  </si>
+  <si>
+    <t>additional_prop2</t>
+  </si>
+  <si>
+    <t>connectedRelationNumber</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>value1</t>
+  </si>
+  <si>
+    <t>value2</t>
+  </si>
+  <si>
+    <t>ENTITY</t>
+  </si>
+  <si>
     <t>bad request, input contains strange characters</t>
   </si>
   <si>
     <t>Device_Modelqwerqwr3r23rwer*()(!@#$%%^&amp;*</t>
   </si>
   <si>
-    <t>bad request, body is empty</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>entity id invalid</t>
-  </si>
-  <si>
-    <t>labels</t>
-  </si>
-  <si>
-    <t>bad request, label not exist</t>
-  </si>
-  <si>
-    <t>good request, single valid label</t>
-  </si>
-  <si>
-    <t>good request, multiple valid labels</t>
-  </si>
-  <si>
-    <t>not_exist_relation</t>
-  </si>
-  <si>
-    <t>good request, mix of valid and invalid labels</t>
-  </si>
-  <si>
-    <t>relationId</t>
-  </si>
-  <si>
-    <t>bad request</t>
-  </si>
-  <si>
-    <t>good request, get all relations</t>
+    <t>label invalid</t>
+  </si>
+  <si>
+    <t>entity does not exist</t>
+  </si>
+  <si>
+    <t>relation does not exist</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>bad request, label is null</t>
+  </si>
+  <si>
+    <t>bad request, properties-metadata_node_type is null</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>testEntity2</t>
+  </si>
+  <si>
+    <t>Jinzu</t>
   </si>
   <si>
     <t>Jinzu-Entity-mgmt-Test-1</t>
   </si>
   <si>
-    <t>Jinzu</t>
+    <t>Jinzu-Entity-mgmt-Test-2</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-3</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-4</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-5</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-6</t>
+  </si>
+  <si>
+    <t>{
+  "id" : "54397",
+  "label" : "testEntity1",
+  "properties" : {
+    "additional_prop1" : "value1ForUpdate",
+    "additional_prop2" : "value2ForUpdate",
+    "metadata_node_type" : "entity",
+    "metadata_node_domain" : "JinzuForUpdate"
+  },
+  "nodeType" : "ENTITY",
+  "connectedRelationNumber" : 0
+}</t>
   </si>
   <si>
     <t>Jinzu-Entity-mgmt-Test-7</t>
@@ -155,106 +261,116 @@
     <t>Jinzu-Entity-mgmt-Test-8</t>
   </si>
   <si>
-    <t>Jinzuqwerqwr3r23rwer*()(!@#$%%^&amp;*</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-2</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-9-var1</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-9-var2</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-9-var3</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-3</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-6-var1</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-6-var2</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-4</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-5-var1</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-17-var1</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-17-var2</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-17-var3</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-17-var4</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-17-var5</t>
+    <t>{
+  "id" : "99999",
+  "label" : "testEntity1",
+  "properties" : {
+    "additional_prop1" : "value1ForUpdate",
+    "additional_prop2" : "value2ForUpdate",
+    "metadata_node_type" : "entity",
+    "metadata_node_domain" : "JinzuForUpdate"
+  },
+  "nodeType" : "ENTITY",
+  "connectedRelationNumber" : 0
+}</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-9</t>
+  </si>
+  <si>
+    <t>{
+  "id" : "abcde",
+  "label" : "testEntity1",
+  "properties" : {
+    "additional_prop1" : "value1ForUpdate",
+    "additional_prop2" : "value2ForUpdate",
+    "metadata_node_type" : "entity",
+    "metadata_node_domain" : "JinzuForUpdate"
+  },
+  "nodeType" : "ENTITY",
+  "connectedRelationNumber" : 0
+}</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-10</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-11</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-12</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-13</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-14</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-15</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-16</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-17</t>
   </si>
   <si>
     <t>Jinzu-Entity-mgmt-Test-18</t>
   </si>
   <si>
-    <t>Jinzu-Entity-mgmt-Test-19-var1</t>
-  </si>
-  <si>
-    <t>Jinzu-Entity-mgmt-Test-19-var2</t>
+    <t>Jinzu-Entity-mgmt-Test-19</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-20</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-21</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-22</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-23</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-24</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-25</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-26</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-27</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-28</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-29</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-30</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-31</t>
+  </si>
+  <si>
+    <t>Jinzu-Entity-mgmt-Test-32</t>
   </si>
   <si>
     <t>invert</t>
   </si>
   <si>
+    <t>Has_Device</t>
+  </si>
+  <si>
     <t>invert, Refer_To</t>
   </si>
   <si>
     <t>Refer_To, not_exist_relation</t>
-  </si>
-  <si>
-    <t>{"id":"41","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>Has_Device</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>same label</t>
-  </si>
-  <si>
-    <t>label invalid</t>
-  </si>
-  <si>
-    <t>{"id":"9999","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
-  </si>
-  <si>
-    <t>{"id":"abcde","label":"testEntity1","properties":{"metadata_node_type":"entity","metadata_node_domain":"Jinzu","additional_prop1":"value1","additional_prop2":"value2"},"nodeType":"ENTITY","location":"Jinzu"}</t>
-  </si>
-  <si>
-    <t>is empty</t>
-  </si>
-  <si>
-    <t>not exist</t>
-  </si>
-  <si>
-    <t>format invalid</t>
-  </si>
-  <si>
-    <t>entity doesn't exist</t>
-  </si>
-  <si>
-    <t>relation doesn't exist</t>
   </si>
 </sst>
 </file>
@@ -330,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -340,6 +456,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,121 +760,280 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2021-01-18T06:55:27.50" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{873DB612-F645-4C6F-9822-CC5C6056046F}">
+  <threadedComment ref="C1" dT="2021-01-18T06:55:27.50" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{85637300-450C-4380-BF4A-D6C68B5985E0}">
     <text>If this field is set, test case will use its value to get a list of relations, then pick up the id of the 1st relation as the relationId value to be test and the input parameter "relationId" will be ignored.</text>
   </threadedComment>
   <threadedComment ref="D1" dT="2021-01-18T04:34:12.95" personId="{DC27ECC5-F7F2-49C3-B546-5535111A3B3F}" id="{74640F05-764D-4B33-BCC4-F16AE36A81EB}">
-    <text>Note: relation ids are different in dev/test/prod environment, so use a fixed id here may lead to test fail in a another environment!</text>
+    <text>Note: use the same id may lead to test fail in different environments, as the ids in dev/test/prod environment are different!</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.77734375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>200</v>
+      </c>
+      <c r="L2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>400</v>
+      </c>
+      <c r="L3" s="2">
+        <v>103000</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>200</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="K4" s="2">
         <v>400</v>
       </c>
-      <c r="F3" s="2">
+      <c r="L4" s="2">
         <v>103000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
         <v>400</v>
       </c>
-      <c r="F4" s="2">
+      <c r="L5" s="2">
         <v>103000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1234</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>400</v>
+      </c>
+      <c r="L6" s="2">
+        <v>103000</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -752,137 +1045,128 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7AC29F-128C-4F8E-8DB9-32DDC8738C5B}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="30.5546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="11" customWidth="1"/>
+    <col min="5" max="7" width="12.5546875" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="12">
+        <v>200</v>
+      </c>
+      <c r="F3" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="12">
+        <v>400</v>
+      </c>
+      <c r="F4" s="12">
+        <v>103000</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="12">
+        <v>400</v>
+      </c>
+      <c r="F5" s="12">
+        <v>103000</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2">
-        <v>200</v>
-      </c>
-      <c r="G2" s="2">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2">
+    </row>
+    <row r="6" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12">
         <v>400</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F6" s="12">
         <v>103000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="2">
-        <v>400</v>
-      </c>
-      <c r="G4" s="2">
-        <v>103000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2">
-        <v>400</v>
-      </c>
-      <c r="G5" s="2">
-        <v>103000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
+      <c r="G6" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -893,115 +1177,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECACFD-75AA-40A8-8500-FACA5E36F33B}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>123456789</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
       </c>
       <c r="F2" s="2">
-        <v>200</v>
-      </c>
-      <c r="G2" s="2">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400</v>
+      </c>
+      <c r="F3" s="2">
+        <v>103000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5">
+        <v>999999</v>
+      </c>
+      <c r="E4" s="2">
         <v>400</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F4" s="2">
         <v>103000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.05" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5">
-        <v>999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>103000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>64</v>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1012,115 +1292,368 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68ECACFD-75AA-40A8-8500-FACA5E36F33B}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2571509-78DE-47F4-8E56-20BCCF573F89}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="I2" s="2">
+        <v>200</v>
+      </c>
+      <c r="J2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2">
+        <v>200</v>
+      </c>
+      <c r="J3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5">
+        <v>999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F02205-0A11-4FA8-921F-0678D65FEEFD}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2">
+        <v>200</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="2">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1234</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
       </c>
       <c r="F2" s="2">
-        <v>200</v>
-      </c>
-      <c r="G2" s="2">
-        <v>200</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>400</v>
+      </c>
+      <c r="F3" s="2">
+        <v>103000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="5">
+        <v>999999</v>
+      </c>
+      <c r="E4" s="2">
         <v>400</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F4" s="2">
         <v>103000</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5">
-        <v>999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>103000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>64</v>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1130,34 +1663,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -1165,103 +1702,155 @@
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>200</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="6">
         <v>200</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="6">
         <v>200</v>
       </c>
-      <c r="E3" s="2">
-        <v>200</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+      <c r="F3" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="2">
-        <v>200</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+      <c r="F4" s="6">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>200</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="2">
         <v>200</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.05" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2">
-        <v>200</v>
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>200</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
+      <c r="F6" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>200</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1271,101 +1860,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8CB3E4-B830-482F-A87D-FE5107D53FAD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="30.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="D2" s="6">
-        <v>190</v>
+        <v>108742</v>
       </c>
       <c r="E2" s="6">
         <v>200</v>
       </c>
       <c r="F2" s="6">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D3" s="6">
-        <v>278</v>
+        <v>104263</v>
       </c>
       <c r="E3" s="6">
         <v>200</v>
       </c>
       <c r="F3" s="6">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>400</v>
@@ -1374,28 +1967,28 @@
         <v>103000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2">
         <v>999999</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F5" s="2">
         <v>103000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\workspace-spring-tool-suite-4-4.10.0.RELEASE\data-layer-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A76F2-7F2E-4319-B20E-17533103C3DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DC7260-24F0-4627-9D27-F939AEB422E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="createEntity" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="94">
   <si>
     <t>testEntity1</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Refer_To, not_exist_relation</t>
+  </si>
+  <si>
+    <t>node type not valid</t>
   </si>
 </sst>
 </file>
@@ -773,25 +776,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD2C6C-7513-4EBA-9D12-F75700A492B3}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="42.08984375" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.77734375" style="8"/>
+    <col min="11" max="11" width="8.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -951,7 +954,7 @@
         <v>103000</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1051,16 +1054,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="30.5546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" style="11" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="11"/>
+    <col min="1" max="2" width="30.54296875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" style="11" customWidth="1"/>
+    <col min="5" max="7" width="12.54296875" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="169" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>59</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="169" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>62</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="179.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="169" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -1184,16 +1187,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1299,19 +1302,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -1445,16 +1448,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="21.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1556,16 +1559,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1591,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
@@ -1667,20 +1670,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE7825D-C3D3-4455-B765-0D831E376750}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1767,7 +1770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
@@ -1868,16 +1871,16 @@
       <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-backup\data-layer-automation\src\main\resources\test-data-xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910C88C-0219-40C1-ACB6-EAAA4A6FE971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796B4C5-1587-4544-82AC-96F566DB29A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="393">
   <si>
     <t>testEntity1</t>
   </si>
@@ -3854,6 +3854,22 @@
   <si>
     <t>snc-entityMgmt-publishCheck-update-Test-22</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entity [[abcde123]] not exist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation failed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_EXIST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge [[abcde123]] not exist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5612,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F5FE0E-8788-403D-8502-6CD26A71119B}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5740,12 +5756,12 @@
         <v>86</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>140</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5767,11 +5783,13 @@
         <v>86</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -5814,7 +5832,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5889,7 +5907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
@@ -5909,7 +5927,7 @@
         <v>101400</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>141</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
@@ -6230,7 +6248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F350B3-2BA8-4FFC-BD4B-B88814906262}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7371,12 +7389,12 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5546875" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -7489,12 +7507,12 @@
         <v>86</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>89</v>
+        <v>390</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>140</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -7515,11 +7533,13 @@
         <v>86</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -7561,7 +7581,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7629,7 +7649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -7648,7 +7668,7 @@
         <v>101400</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>141</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
+++ b/src/main/resources/test-data-xls/jinzu-entity-management-test-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\auto_worksapce\feature-automation\src\main\resources\test-data-xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6796B4C5-1587-4544-82AC-96F566DB29A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAB23F-240E-478F-AA2A-90740BAF7D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="800" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1092" yWindow="300" windowWidth="21960" windowHeight="12408" tabRatio="800" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="publishCheck" sheetId="21" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="395">
   <si>
     <t>testEntity1</t>
   </si>
@@ -714,9 +714,6 @@
   </si>
   <si>
     <t>NOT_EXIST</t>
-  </si>
-  <si>
-    <t>java.util.concurrent.CompletionException: org.apache.tinkerpop.gremlin.driver.exception.ResponseException</t>
   </si>
   <si>
     <t>[
@@ -3869,6 +3866,18 @@
   </si>
   <si>
     <t>Edge [[abcde123]] not exist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4322,21 +4331,21 @@
         <v>2</v>
       </c>
       <c r="AA1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB1" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>233</v>
-      </c>
       <c r="W2" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>35</v>
@@ -4352,13 +4361,13 @@
     </row>
     <row r="3" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="X3" s="5">
         <v>200</v>
@@ -4367,22 +4376,22 @@
         <v>100000</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA3" s="14"/>
       <c r="AB3" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U4" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>240</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="X4" s="5">
         <v>200</v>
@@ -4391,22 +4400,22 @@
         <v>100000</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA4" s="14"/>
       <c r="AB4" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U5" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="V5" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="W5" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="X5" s="5">
         <v>200</v>
@@ -4415,22 +4424,22 @@
         <v>100000</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U6" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="V6" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="W6" s="14" t="s">
-        <v>248</v>
       </c>
       <c r="X6" s="5">
         <v>200</v>
@@ -4439,20 +4448,20 @@
         <v>100000</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U7" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="V7" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="W7" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="X7" s="5">
         <v>200</v>
@@ -4461,22 +4470,22 @@
         <v>100000</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U8" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>254</v>
-      </c>
-      <c r="W8" s="14" t="s">
-        <v>255</v>
       </c>
       <c r="X8" s="5">
         <v>200</v>
@@ -4485,20 +4494,20 @@
         <v>100000</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="V9" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>257</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>258</v>
       </c>
       <c r="X9" s="5">
         <v>200</v>
@@ -4507,7 +4516,7 @@
         <v>100000</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5" t="s">
@@ -4516,13 +4525,13 @@
     </row>
     <row r="10" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="V10" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="W10" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="W10" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="X10" s="5">
         <v>200</v>
@@ -4531,20 +4540,20 @@
         <v>100000</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U11" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="V11" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="W11" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="W11" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="X11" s="5">
         <v>200</v>
@@ -4553,20 +4562,20 @@
         <v>100000</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U12" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="V12" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="W12" s="14" t="s">
         <v>266</v>
-      </c>
-      <c r="W12" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="X12" s="5">
         <v>200</v>
@@ -4575,22 +4584,22 @@
         <v>100000</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA12" s="5"/>
       <c r="AB12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U13" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="V13" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="W13" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="X13" s="5">
         <v>200</v>
@@ -4599,22 +4608,22 @@
         <v>100000</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U14" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="V14" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="W14" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>275</v>
       </c>
       <c r="X14" s="5">
         <v>200</v>
@@ -4623,22 +4632,22 @@
         <v>100000</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA14" s="5"/>
       <c r="AB14" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U15" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="V15" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="W15" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="W15" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="X15" s="5">
         <v>200</v>
@@ -4647,22 +4656,22 @@
         <v>100000</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="V16" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="W16" s="14" t="s">
         <v>280</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="X16" s="5">
         <v>200</v>
@@ -4671,20 +4680,20 @@
         <v>100000</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
     <row r="17" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U17" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="V17" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="W17" s="14" t="s">
         <v>283</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>284</v>
       </c>
       <c r="X17" s="5">
         <v>200</v>
@@ -4693,20 +4702,20 @@
         <v>100000</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U18" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="V18" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="W18" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>287</v>
       </c>
       <c r="X18" s="5">
         <v>200</v>
@@ -4715,7 +4724,7 @@
         <v>100000</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5" t="s">
@@ -4724,13 +4733,13 @@
     </row>
     <row r="19" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U19" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="V19" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="W19" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="X19" s="5">
         <v>200</v>
@@ -4739,7 +4748,7 @@
         <v>100000</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5" t="s">
@@ -4748,13 +4757,13 @@
     </row>
     <row r="20" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U20" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V20" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="W20" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="X20" s="5">
         <v>200</v>
@@ -4763,7 +4772,7 @@
         <v>100000</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5" t="s">
@@ -4772,13 +4781,13 @@
     </row>
     <row r="21" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U21" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="V21" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="W21" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="W21" s="14" t="s">
-        <v>296</v>
       </c>
       <c r="X21" s="5">
         <v>200</v>
@@ -4787,22 +4796,22 @@
         <v>100000</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U22" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="V22" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="W22" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>300</v>
       </c>
       <c r="X22" s="5">
         <v>200</v>
@@ -4811,22 +4820,22 @@
         <v>100000</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U23" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="V23" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="W23" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="W23" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="X23" s="5">
         <v>200</v>
@@ -4835,22 +4844,22 @@
         <v>100000</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U24" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="V24" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="W24" s="20" t="s">
         <v>306</v>
-      </c>
-      <c r="W24" s="20" t="s">
-        <v>307</v>
       </c>
       <c r="X24" s="5">
         <v>200</v>
@@ -4859,21 +4868,21 @@
         <v>100000</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U25" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="V25" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="W25" s="20" t="s">
         <v>310</v>
-      </c>
-      <c r="W25" s="20" t="s">
-        <v>311</v>
       </c>
       <c r="X25" s="5">
         <v>200</v>
@@ -4882,21 +4891,21 @@
         <v>100000</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U26" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="V26" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="W26" s="20" t="s">
         <v>314</v>
-      </c>
-      <c r="W26" s="20" t="s">
-        <v>315</v>
       </c>
       <c r="X26" s="5">
         <v>200</v>
@@ -4905,18 +4914,18 @@
         <v>100000</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U27" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="V27" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="W27" s="20" t="s">
         <v>317</v>
-      </c>
-      <c r="W27" s="20" t="s">
-        <v>318</v>
       </c>
       <c r="X27" s="5">
         <v>200</v>
@@ -4925,18 +4934,18 @@
         <v>100000</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="21:28" ht="409.6" x14ac:dyDescent="0.25">
       <c r="U28" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="V28" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="W28" s="20" t="s">
         <v>320</v>
-      </c>
-      <c r="W28" s="20" t="s">
-        <v>321</v>
       </c>
       <c r="X28" s="5">
         <v>200</v>
@@ -4945,7 +4954,7 @@
         <v>100000</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5016,13 +5025,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="8">
         <v>200</v>
@@ -5044,11 +5053,11 @@
         <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="8">
         <v>400</v>
@@ -5066,11 +5075,11 @@
         <v>61</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="8">
         <v>400</v>
@@ -5088,11 +5097,11 @@
         <v>62</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="8">
         <v>400</v>
@@ -5110,11 +5119,11 @@
         <v>63</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" s="8">
         <v>400</v>
@@ -5132,11 +5141,11 @@
         <v>64</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="8">
         <v>400</v>
@@ -5154,11 +5163,11 @@
         <v>65</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E8" s="8">
         <v>400</v>
@@ -5172,7 +5181,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -5180,11 +5189,11 @@
         <v>66</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="8">
         <v>400</v>
@@ -5198,7 +5207,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
@@ -5206,11 +5215,11 @@
         <v>67</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="8">
         <v>400</v>
@@ -5224,19 +5233,19 @@
       <c r="H10" s="12"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="8">
         <v>400</v>
@@ -5250,19 +5259,19 @@
       <c r="H11" s="12"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="8">
         <v>400</v>
@@ -5281,14 +5290,14 @@
     </row>
     <row r="13" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="8">
         <v>400</v>
@@ -5307,14 +5316,14 @@
     </row>
     <row r="14" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="8">
         <v>400</v>
@@ -5328,19 +5337,19 @@
       <c r="H14" s="12"/>
       <c r="I14" s="6"/>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="8">
         <v>400</v>
@@ -5359,14 +5368,14 @@
     </row>
     <row r="16" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16" s="8">
         <v>400</v>
@@ -5385,14 +5394,14 @@
     </row>
     <row r="17" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="8">
         <v>400</v>
@@ -5411,14 +5420,14 @@
     </row>
     <row r="18" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="8">
         <v>400</v>
@@ -5437,14 +5446,14 @@
     </row>
     <row r="19" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="8">
         <v>400</v>
@@ -5463,14 +5472,14 @@
     </row>
     <row r="20" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="8">
         <v>400</v>
@@ -5489,14 +5498,14 @@
     </row>
     <row r="21" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="8">
         <v>400</v>
@@ -5515,14 +5524,14 @@
     </row>
     <row r="22" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>189</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" s="8">
         <v>400</v>
@@ -5541,14 +5550,14 @@
     </row>
     <row r="23" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E23" s="8">
         <v>400</v>
@@ -5567,14 +5576,14 @@
     </row>
     <row r="24" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E24" s="8">
         <v>400</v>
@@ -5588,19 +5597,19 @@
       <c r="H24" s="12"/>
       <c r="I24" s="6"/>
       <c r="J24" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="8">
         <v>200</v>
@@ -5612,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="7"/>
@@ -5628,7 +5637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F5FE0E-8788-403D-8502-6CD26A71119B}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
@@ -5688,16 +5697,16 @@
         <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="F2" s="12">
         <v>200</v>
@@ -5742,12 +5751,12 @@
         <v>30</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>85</v>
@@ -5756,12 +5765,12 @@
         <v>86</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5769,12 +5778,12 @@
         <v>31</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>85</v>
@@ -5783,12 +5792,12 @@
         <v>86</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -5800,10 +5809,10 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="F6" s="12">
         <v>200</v>
@@ -5886,10 +5895,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>71</v>
@@ -5927,7 +5936,7 @@
         <v>101400</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
@@ -5950,7 +5959,7 @@
         <v>101400</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6045,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -6088,8 +6097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3E9BB9-23BC-452F-AE17-4472AC4F82DB}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6143,10 +6152,10 @@
         <v>82</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>71</v>
@@ -6173,10 +6182,10 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>58</v>
@@ -6191,7 +6200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
@@ -6204,14 +6213,14 @@
       <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10">
-        <v>400</v>
+      <c r="G4" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>141</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
@@ -6225,7 +6234,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="10"/>
       <c r="F5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="10">
         <v>200</v>
@@ -6271,10 +6280,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>324</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>4</v>
@@ -6288,19 +6297,19 @@
     </row>
     <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>35</v>
@@ -6356,21 +6365,21 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>35</v>
@@ -6386,13 +6395,13 @@
     </row>
     <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -6401,21 +6410,21 @@
         <v>100000</v>
       </c>
       <c r="F3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" t="s">
         <v>237</v>
-      </c>
-      <c r="H3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -6424,21 +6433,21 @@
         <v>100000</v>
       </c>
       <c r="F4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" t="s">
         <v>237</v>
-      </c>
-      <c r="H4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="207" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>346</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -6447,21 +6456,21 @@
         <v>100000</v>
       </c>
       <c r="F5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>349</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -6470,21 +6479,21 @@
         <v>100000</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>351</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -6493,21 +6502,21 @@
         <v>100000</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -6516,18 +6525,18 @@
         <v>100000</v>
       </c>
       <c r="F8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -6536,18 +6545,18 @@
         <v>100000</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -6556,7 +6565,7 @@
         <v>100000</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H10" t="s">
         <v>109</v>
@@ -6564,13 +6573,13 @@
     </row>
     <row r="11" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11">
         <v>200</v>
@@ -6579,21 +6588,21 @@
         <v>100000</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>355</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>356</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -6602,21 +6611,21 @@
         <v>100000</v>
       </c>
       <c r="F12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D13">
         <v>200</v>
@@ -6625,7 +6634,7 @@
         <v>100000</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H13" t="s">
         <v>102</v>
@@ -6633,13 +6642,13 @@
     </row>
     <row r="14" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14">
         <v>200</v>
@@ -6648,18 +6657,18 @@
         <v>100000</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -6668,18 +6677,18 @@
         <v>100000</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D16">
         <v>200</v>
@@ -6688,21 +6697,21 @@
         <v>100000</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -6711,7 +6720,7 @@
         <v>100000</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s">
         <v>102</v>
@@ -6719,13 +6728,13 @@
     </row>
     <row r="18" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B18" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D18">
         <v>200</v>
@@ -6734,7 +6743,7 @@
         <v>100000</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
         <v>109</v>
@@ -6742,13 +6751,13 @@
     </row>
     <row r="19" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19">
         <v>200</v>
@@ -6757,21 +6766,21 @@
         <v>100000</v>
       </c>
       <c r="F19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -6780,21 +6789,21 @@
         <v>100000</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>365</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>366</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -6803,21 +6812,21 @@
         <v>100000</v>
       </c>
       <c r="F21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D22">
         <v>200</v>
@@ -6826,21 +6835,21 @@
         <v>100000</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="207" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>368</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>369</v>
       </c>
       <c r="D23">
         <v>200</v>
@@ -6849,7 +6858,7 @@
         <v>100000</v>
       </c>
       <c r="F23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
         <v>109</v>
@@ -6944,7 +6953,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>96</v>
@@ -6965,7 +6974,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>88</v>
@@ -6986,7 +6995,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>97</v>
@@ -7082,7 +7091,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>99</v>
@@ -7107,7 +7116,7 @@
         <v>92</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>105</v>
@@ -7249,7 +7258,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -7360,7 +7369,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>35</v>
@@ -7507,12 +7516,12 @@
         <v>86</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -7533,7 +7542,7 @@
         <v>86</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="6"/>
@@ -7549,10 +7558,10 @@
         <v>137</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="E6" s="12">
         <v>200</v>
@@ -7668,7 +7677,7 @@
         <v>101400</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7690,7 +7699,7 @@
         <v>101400</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -7785,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2">
         <v>200</v>
@@ -7928,13 +7937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C10F18-6774-4DA2-A97E-6CA070C2B102}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H5"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.21875" style="5" customWidth="1"/>
     <col min="2" max="2" width="30.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.77734375" style="5" bestFit="1" customWidth="1"/>
@@ -7985,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F2" s="10">
         <v>200</v>
@@ -8005,7 +8014,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>57</v>
@@ -8023,7 +8032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -8035,14 +8044,14 @@
       <c r="E4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10">
-        <v>400</v>
+      <c r="F4" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>141</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -8055,7 +8064,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="10">
         <v>200</v>
